--- a/业绩报表/600865.xlsx
+++ b/业绩报表/600865.xlsx
@@ -647,7 +647,9 @@
           <t>2020-03-31 00:00:00</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>-0.02</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
         <v>54445013.23</v>
@@ -729,7 +731,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>2020-12-29 20:11:50</t>
+          <t>2020-12-30 17:57:57</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
